--- a/Lab_3/Segway_files/Outputs/output12.xlsx
+++ b/Lab_3/Segway_files/Outputs/output12.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>118.1486094177466</v>
+        <v>6770.373987637497</v>
       </c>
       <c r="C2">
-        <v>767.4197090629038</v>
+        <v>12931.03960061645</v>
       </c>
       <c r="D2">
-        <v>-0.0008642332826400735</v>
+        <v>-0.00231164898598287</v>
       </c>
       <c r="E2">
-        <v>-0.9781162232481668</v>
+        <v>-0.9922459160391658</v>
       </c>
       <c r="F2">
-        <v>-0.008022831365764815</v>
+        <v>0.01450707472789117</v>
       </c>
       <c r="G2">
-        <v>855.062</v>
+        <v>13019.71</v>
       </c>
       <c r="H2">
-        <v>799.89</v>
+        <v>12999.95</v>
       </c>
       <c r="I2">
-        <v>-0.00152</v>
+        <v>0.000634</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,782 +438,782 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>157.4762586295451</v>
+        <v>7354.911043221137</v>
       </c>
       <c r="C3">
-        <v>794.7416796167179</v>
+        <v>13064.1896782504</v>
       </c>
       <c r="D3">
-        <v>0.1056707208682752</v>
+        <v>0.1832341736516759</v>
       </c>
       <c r="E3">
-        <v>-0.9972463570121776</v>
+        <v>-0.9676242116147439</v>
       </c>
       <c r="F3">
-        <v>0.02723927720656721</v>
+        <v>0.002391603377000558</v>
       </c>
       <c r="G3">
-        <v>850.9604422381241</v>
+        <v>12978.53032077621</v>
       </c>
       <c r="H3">
-        <v>799.8962343725993</v>
+        <v>12999.92389207987</v>
       </c>
       <c r="I3">
-        <v>0.01150083333333333</v>
+        <v>0.02283329245283019</v>
       </c>
       <c r="J3">
-        <v>0.1041666666666667</v>
+        <v>0.1775943396226415</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>181.3007231398343</v>
+        <v>7318.948152274193</v>
       </c>
       <c r="C4">
-        <v>783.0311432238559</v>
+        <v>13101.00176904317</v>
       </c>
       <c r="D4">
-        <v>0.2109985688541514</v>
+        <v>0.3534714045474794</v>
       </c>
       <c r="E4">
-        <v>-1.014330767716916</v>
+        <v>-0.967070997330439</v>
       </c>
       <c r="F4">
-        <v>0.05929171539801791</v>
+        <v>0.07688695933704598</v>
       </c>
       <c r="G4">
-        <v>842.757859742401</v>
+        <v>12896.19241425421</v>
       </c>
       <c r="H4">
-        <v>799.8018936789215</v>
+        <v>12998.04351978579</v>
       </c>
       <c r="I4">
-        <v>0.0375425</v>
+        <v>0.06723187735849057</v>
       </c>
       <c r="J4">
-        <v>0.2083333333333333</v>
+        <v>0.355188679245283</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>169.8469802345131</v>
+        <v>7164.746003059857</v>
       </c>
       <c r="C5">
-        <v>820.2820773089687</v>
+        <v>13178.69607578592</v>
       </c>
       <c r="D5">
-        <v>0.3225893573740969</v>
+        <v>0.5414422554961431</v>
       </c>
       <c r="E5">
-        <v>-0.9846509531663463</v>
+        <v>-0.9979473079730229</v>
       </c>
       <c r="F5">
-        <v>0.0895692163814476</v>
+        <v>0.1431701093221465</v>
       </c>
       <c r="G5">
-        <v>830.4618425790766</v>
+        <v>12772.93245262255</v>
       </c>
       <c r="H5">
-        <v>799.3400534555888</v>
+        <v>12989.74401245449</v>
       </c>
       <c r="I5">
-        <v>0.07660500000000001</v>
+        <v>0.1338297547169811</v>
       </c>
       <c r="J5">
-        <v>0.3125</v>
+        <v>0.5327830188679246</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>182.8069103921968</v>
+        <v>7446.025850089087</v>
       </c>
       <c r="C6">
-        <v>816.3624451149973</v>
+        <v>13186.10086952466</v>
       </c>
       <c r="D6">
-        <v>0.416200453740283</v>
+        <v>0.7074089847666185</v>
       </c>
       <c r="E6">
-        <v>-0.9851067962217799</v>
+        <v>-0.9733290311492119</v>
       </c>
       <c r="F6">
-        <v>0.1411816061452393</v>
+        <v>0.2253383134261673</v>
       </c>
       <c r="G6">
-        <v>814.1037076545157</v>
+        <v>12609.68659193318</v>
       </c>
       <c r="H6">
-        <v>798.0844815331716</v>
+        <v>12967.76548726858</v>
       </c>
       <c r="I6">
-        <v>0.1286883333333333</v>
+        <v>0.2226269245283019</v>
       </c>
       <c r="J6">
-        <v>0.4166666666666667</v>
+        <v>0.710377358490566</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>185.5617900300863</v>
+        <v>7947.023953544843</v>
       </c>
       <c r="C7">
-        <v>825.981156822256</v>
+        <v>13592.69106089562</v>
       </c>
       <c r="D7">
-        <v>0.5175187241952324</v>
+        <v>0.8915720950244472</v>
       </c>
       <c r="E7">
-        <v>-0.9898335525729717</v>
+        <v>-0.9336306681980632</v>
       </c>
       <c r="F7">
-        <v>0.2059995217519744</v>
+        <v>0.2896623153632905</v>
       </c>
       <c r="G7">
-        <v>793.7654726672575</v>
+        <v>12408.869561085</v>
       </c>
       <c r="H7">
-        <v>795.4526435559727</v>
+        <v>12922.3046614263</v>
       </c>
       <c r="I7">
-        <v>0.1937925</v>
+        <v>0.3336233867924528</v>
       </c>
       <c r="J7">
-        <v>0.5208333333333334</v>
+        <v>0.8879716981132075</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>245.0483936362492</v>
+        <v>8452.875875122952</v>
       </c>
       <c r="C8">
-        <v>829.2340132346543</v>
+        <v>14815.94765064837</v>
       </c>
       <c r="D8">
-        <v>0.6222869918543203</v>
+        <v>1.062716739628479</v>
       </c>
       <c r="E8">
-        <v>-0.9284698624121693</v>
+        <v>-0.9104128522464354</v>
       </c>
       <c r="F8">
-        <v>0.2837945208537356</v>
+        <v>0.4526472152806914</v>
       </c>
       <c r="G8">
-        <v>769.6167623452017</v>
+        <v>12175.41482909579</v>
       </c>
       <c r="H8">
-        <v>790.7133263401646</v>
+        <v>12841.39429147681</v>
       </c>
       <c r="I8">
-        <v>0.2719175</v>
+        <v>0.466819141509434</v>
       </c>
       <c r="J8">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>270.2336945719859</v>
+        <v>9685.632624120366</v>
       </c>
       <c r="C9">
-        <v>758.0841850000369</v>
+        <v>14782.3802579396</v>
       </c>
       <c r="D9">
-        <v>0.6279098156473737</v>
+        <v>1.060728614572911</v>
       </c>
       <c r="E9">
-        <v>-0.9336417035032608</v>
+        <v>-0.8457090684574443</v>
       </c>
       <c r="F9">
-        <v>0.3016107020055609</v>
+        <v>0.554401584469939</v>
       </c>
       <c r="G9">
-        <v>745.9115931877461</v>
+        <v>11954.77299051572</v>
       </c>
       <c r="H9">
-        <v>784.1037656053622</v>
+        <v>12730.19726399171</v>
       </c>
       <c r="I9">
-        <v>0.3500425</v>
+        <v>0.6000148962264151</v>
       </c>
       <c r="J9">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>314.9190858695931</v>
+        <v>10839.90857776271</v>
       </c>
       <c r="C10">
-        <v>665.7535971426815</v>
+        <v>12118.22049880754</v>
       </c>
       <c r="D10">
-        <v>0.629439879895441</v>
+        <v>1.065708020763157</v>
       </c>
       <c r="E10">
-        <v>-0.9127350634007878</v>
+        <v>-0.7360197154432359</v>
       </c>
       <c r="F10">
-        <v>0.4235850971612247</v>
+        <v>0.6675112465123607</v>
       </c>
       <c r="G10">
-        <v>722.7945764896765</v>
+        <v>11750.85269249526</v>
       </c>
       <c r="H10">
-        <v>775.664282394182</v>
+        <v>12590.6834227115</v>
       </c>
       <c r="I10">
-        <v>0.4281675</v>
+        <v>0.7332106509433962</v>
       </c>
       <c r="J10">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>350.0048072469439</v>
+        <v>9910.296459508752</v>
       </c>
       <c r="C11">
-        <v>640.7801510818015</v>
+        <v>10823.20424776146</v>
       </c>
       <c r="D11">
-        <v>0.6340102651793322</v>
+        <v>1.05863753905559</v>
       </c>
       <c r="E11">
-        <v>-0.8510077264697612</v>
+        <v>-0.6700490240654403</v>
       </c>
       <c r="F11">
-        <v>0.452555873560489</v>
+        <v>0.7820648159915375</v>
       </c>
       <c r="G11">
-        <v>700.4067355735468</v>
+        <v>11567.26636183845</v>
       </c>
       <c r="H11">
-        <v>765.4463610299958</v>
+        <v>12425.3242407787</v>
       </c>
       <c r="I11">
-        <v>0.5062925</v>
+        <v>0.8664064056603773</v>
       </c>
       <c r="J11">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>368.6931553999165</v>
+        <v>9158.918561073669</v>
       </c>
       <c r="C12">
-        <v>605.3246052725135</v>
+        <v>10606.41997139288</v>
       </c>
       <c r="D12">
-        <v>0.6179980833136027</v>
+        <v>1.067678912661019</v>
       </c>
       <c r="E12">
-        <v>-0.8370202260425978</v>
+        <v>-0.5505403036465167</v>
       </c>
       <c r="F12">
-        <v>0.5579138661249139</v>
+        <v>0.8366376790093694</v>
       </c>
       <c r="G12">
-        <v>678.8846454893317</v>
+        <v>11407.26621123896</v>
       </c>
       <c r="H12">
-        <v>753.5123350413552</v>
+        <v>12237.04903884903</v>
       </c>
       <c r="I12">
-        <v>0.5844175</v>
+        <v>0.9996021603773584</v>
       </c>
       <c r="J12">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>420.9100372715905</v>
+        <v>8690.565689019497</v>
       </c>
       <c r="C13">
-        <v>568.4463974978366</v>
+        <v>9667.312635984084</v>
       </c>
       <c r="D13">
-        <v>0.6222227902755548</v>
+        <v>1.075149358182722</v>
       </c>
       <c r="E13">
-        <v>-0.7658138779163109</v>
+        <v>-0.4241252086385775</v>
       </c>
       <c r="F13">
-        <v>0.6089131150007204</v>
+        <v>0.9144820046315792</v>
       </c>
       <c r="G13">
-        <v>658.3595998503732</v>
+        <v>11273.68662667155</v>
       </c>
       <c r="H13">
-        <v>739.9350069017947</v>
+        <v>12029.19309248157</v>
       </c>
       <c r="I13">
-        <v>0.6625425</v>
+        <v>1.132797915094339</v>
       </c>
       <c r="J13">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>404.2117345597912</v>
+        <v>8493.16634187909</v>
       </c>
       <c r="C14">
-        <v>524.6735911011493</v>
+        <v>9523.286696411207</v>
       </c>
       <c r="D14">
-        <v>0.627998649701798</v>
+        <v>1.063536254985991</v>
       </c>
       <c r="E14">
-        <v>-0.7554162071509177</v>
+        <v>-0.2746455822341929</v>
       </c>
       <c r="F14">
-        <v>0.6898335855280842</v>
+        <v>0.9593039881616497</v>
       </c>
       <c r="G14">
-        <v>638.9568098882671</v>
+        <v>11168.89395654023</v>
       </c>
       <c r="H14">
-        <v>724.7972039047605</v>
+        <v>11805.4385480802</v>
       </c>
       <c r="I14">
-        <v>0.7406675</v>
+        <v>1.265993669811321</v>
       </c>
       <c r="J14">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>393.7562491894172</v>
+        <v>8272.981503129244</v>
       </c>
       <c r="C15">
-        <v>529.9870966250101</v>
+        <v>8726.671186922691</v>
       </c>
       <c r="D15">
-        <v>0.6212669447443865</v>
+        <v>1.071735279671377</v>
       </c>
       <c r="E15">
-        <v>-0.665488874973735</v>
+        <v>-0.1769181596546198</v>
       </c>
       <c r="F15">
-        <v>0.7123372840383011</v>
+        <v>0.9997643747328558</v>
       </c>
       <c r="G15">
-        <v>620.7946406127812</v>
+        <v>11094.74459206314</v>
       </c>
       <c r="H15">
-        <v>708.1912728830075</v>
+        <v>11569.74919405427</v>
       </c>
       <c r="I15">
-        <v>0.8187925</v>
+        <v>1.399189424528302</v>
       </c>
       <c r="J15">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>398.9900068616687</v>
+        <v>8688.607593111146</v>
       </c>
       <c r="C16">
-        <v>484.5601409035143</v>
+        <v>9052.828831636996</v>
       </c>
       <c r="D16">
-        <v>0.6216975001543896</v>
+        <v>1.063519262897141</v>
       </c>
       <c r="E16">
-        <v>-0.6217376531114223</v>
+        <v>-0.01114823203598609</v>
       </c>
       <c r="F16">
-        <v>0.7915737121357638</v>
+        <v>1.003818874703398</v>
       </c>
       <c r="G16">
-        <v>603.983888736548</v>
+        <v>11052.55208149586</v>
       </c>
       <c r="H16">
-        <v>690.2185168548868</v>
+        <v>11326.30024272044</v>
       </c>
       <c r="I16">
-        <v>0.8969175</v>
+        <v>1.532385179245283</v>
       </c>
       <c r="J16">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>382.9082122269612</v>
+        <v>9299.865980225955</v>
       </c>
       <c r="C17">
-        <v>513.6039983739555</v>
+        <v>9182.79734349237</v>
       </c>
       <c r="D17">
-        <v>0.6226101790968301</v>
+        <v>1.063203445424161</v>
       </c>
       <c r="E17">
-        <v>-0.5673513546316233</v>
+        <v>0.0762714991590385</v>
       </c>
       <c r="F17">
-        <v>0.8553227072330841</v>
+        <v>1.010599053742822</v>
       </c>
       <c r="G17">
-        <v>588.6271067694862</v>
+        <v>11043.06386076107</v>
       </c>
       <c r="H17">
-        <v>670.9885770342127</v>
+        <v>11079.40436685208</v>
       </c>
       <c r="I17">
-        <v>0.9750425</v>
+        <v>1.665580933962264</v>
       </c>
       <c r="J17">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>406.9794818784161</v>
+        <v>9091.499910157272</v>
       </c>
       <c r="C18">
-        <v>464.5110856264915</v>
+        <v>9397.733450536791</v>
       </c>
       <c r="D18">
-        <v>0.6252386462109019</v>
+        <v>1.072622316260899</v>
       </c>
       <c r="E18">
-        <v>-0.4908327362954668</v>
+        <v>0.2369499008978451</v>
       </c>
       <c r="F18">
-        <v>0.8888373569402971</v>
+        <v>0.9900025570264385</v>
       </c>
       <c r="G18">
-        <v>574.8179774062538</v>
+        <v>11066.44801269915</v>
       </c>
       <c r="H18">
-        <v>650.6187639737022</v>
+        <v>10833.4353011311</v>
       </c>
       <c r="I18">
-        <v>1.0531675</v>
+        <v>1.798776688679245</v>
       </c>
       <c r="J18">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>391.1448035407776</v>
+        <v>9856.162625597281</v>
       </c>
       <c r="C19">
-        <v>484.0113064986854</v>
+        <v>9675.880916149241</v>
       </c>
       <c r="D19">
-        <v>0.6274734211637695</v>
+        <v>1.06188986839196</v>
       </c>
       <c r="E19">
-        <v>-0.4634943896260447</v>
+        <v>0.3365091585136298</v>
       </c>
       <c r="F19">
-        <v>0.8860625668213695</v>
+        <v>0.9141097950763623</v>
       </c>
       <c r="G19">
-        <v>562.6407420232281</v>
+        <v>11122.29028949824</v>
       </c>
       <c r="H19">
-        <v>629.2333419222904</v>
+        <v>10592.75036189432</v>
       </c>
       <c r="I19">
-        <v>1.1312925</v>
+        <v>1.931972443396226</v>
       </c>
       <c r="J19">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>387.8396557134835</v>
+        <v>10953.97368057585</v>
       </c>
       <c r="C20">
-        <v>504.1298982297213</v>
+        <v>10120.5767252275</v>
       </c>
       <c r="D20">
-        <v>0.6261165106149543</v>
+        <v>1.065918874854566</v>
       </c>
       <c r="E20">
-        <v>-0.3584148180943076</v>
+        <v>0.4673805201520012</v>
       </c>
       <c r="F20">
-        <v>0.9420981364320363</v>
+        <v>0.898090940217004</v>
       </c>
       <c r="G20">
-        <v>552.1696867714149</v>
+        <v>11209.60145105097</v>
       </c>
       <c r="H20">
-        <v>606.9627707620327</v>
+        <v>10361.61325772922</v>
       </c>
       <c r="I20">
-        <v>1.2094175</v>
+        <v>2.065168198113207</v>
       </c>
       <c r="J20">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>402.6725693241507</v>
+        <v>12244.60955875856</v>
       </c>
       <c r="C21">
-        <v>484.8213329824097</v>
+        <v>11048.18218505025</v>
       </c>
       <c r="D21">
-        <v>0.6257742134318699</v>
+        <v>1.066250492868646</v>
       </c>
       <c r="E21">
-        <v>-0.3071779407754217</v>
+        <v>0.6071641113267376</v>
       </c>
       <c r="F21">
-        <v>0.957900828863174</v>
+        <v>0.8042005364594954</v>
       </c>
       <c r="G21">
-        <v>543.4686894003329</v>
+        <v>11326.83478923977</v>
       </c>
       <c r="H21">
-        <v>583.9429101490957</v>
+        <v>10144.1185583211</v>
       </c>
       <c r="I21">
-        <v>1.2875425</v>
+        <v>2.198363952830188</v>
       </c>
       <c r="J21">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>430.830748482251</v>
+        <v>13874.54487634007</v>
       </c>
       <c r="C22">
-        <v>511.4067756543058</v>
+        <v>11741.37955735378</v>
       </c>
       <c r="D22">
-        <v>0.6328564451580153</v>
+        <v>1.060249637534685</v>
       </c>
       <c r="E22">
-        <v>-0.2338019005056184</v>
+        <v>0.6677700060069166</v>
       </c>
       <c r="F22">
-        <v>1.021601654738422</v>
+        <v>0.6806666516061886</v>
       </c>
       <c r="G22">
-        <v>536.5908295774334</v>
+        <v>11471.9135277098</v>
       </c>
       <c r="H22">
-        <v>560.3141907139005</v>
+        <v>9944.11915957836</v>
       </c>
       <c r="I22">
-        <v>1.3656675</v>
+        <v>2.331559707547169</v>
       </c>
       <c r="J22">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>427.8752775080921</v>
+        <v>14575.2952143712</v>
       </c>
       <c r="C23">
-        <v>496.8677769370894</v>
+        <v>12962.93868948036</v>
       </c>
       <c r="D23">
-        <v>0.6237166290303741</v>
+        <v>1.066271777718161</v>
       </c>
       <c r="E23">
-        <v>-0.1257651007161914</v>
+        <v>0.8135156401519651</v>
       </c>
       <c r="F23">
-        <v>0.9783247366331872</v>
+        <v>0.6564087678818377</v>
       </c>
       <c r="G23">
-        <v>531.5780650802686</v>
+        <v>11642.26761174541</v>
       </c>
       <c r="H23">
-        <v>536.2207573764414</v>
+        <v>9765.158029983399</v>
       </c>
       <c r="I23">
-        <v>1.4437925</v>
+        <v>2.46475546226415</v>
       </c>
       <c r="J23">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>495.4442820350258</v>
+        <v>13853.98956468342</v>
       </c>
       <c r="C24">
-        <v>483.1703779471292</v>
+        <v>12021.22830194483</v>
       </c>
       <c r="D24">
-        <v>0.5231130925634099</v>
+        <v>0.8827134906125833</v>
       </c>
       <c r="E24">
-        <v>-0.06468946705807822</v>
+        <v>0.836511820985249</v>
       </c>
       <c r="F24">
-        <v>1.004036326772422</v>
+        <v>0.4894893754074324</v>
       </c>
       <c r="G24">
-        <v>528.9804907106848</v>
+        <v>11802.77729905862</v>
       </c>
       <c r="H24">
-        <v>515.8781178984966</v>
+        <v>9636.197544393601</v>
       </c>
       <c r="I24">
-        <v>1.508896666666667</v>
+        <v>2.575751924528301</v>
       </c>
       <c r="J24">
-        <v>0.5208333333333334</v>
+        <v>0.8879716981132075</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>494.7644262747118</v>
+        <v>13558.01705633987</v>
       </c>
       <c r="C25">
-        <v>493.8751712650168</v>
+        <v>11932.80685937642</v>
       </c>
       <c r="D25">
-        <v>0.4177151894620601</v>
+        <v>0.7179489667612927</v>
       </c>
       <c r="E25">
-        <v>-0.01626485195851781</v>
+        <v>0.8864585129115874</v>
       </c>
       <c r="F25">
-        <v>1.011805962907316</v>
+        <v>0.4319425393923326</v>
       </c>
       <c r="G25">
-        <v>527.9655978067195</v>
+        <v>11941.82268198847</v>
       </c>
       <c r="H25">
-        <v>499.5032886946246</v>
+        <v>9547.887589759628</v>
       </c>
       <c r="I25">
-        <v>1.56098</v>
+        <v>2.664549094339622</v>
       </c>
       <c r="J25">
-        <v>0.4166666666666667</v>
+        <v>0.710377358490566</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>488.2760517440677</v>
+        <v>13211.25091631765</v>
       </c>
       <c r="C26">
-        <v>464.2428587323833</v>
+        <v>11435.41077089568</v>
       </c>
       <c r="D26">
-        <v>0.3126922595060804</v>
+        <v>0.5367964884601588</v>
       </c>
       <c r="E26">
-        <v>0.02682471372770594</v>
+        <v>0.8798446740923759</v>
       </c>
       <c r="F26">
-        <v>0.9829093000078761</v>
+        <v>0.3983634527454923</v>
       </c>
       <c r="G26">
-        <v>527.8448129129431</v>
+        <v>12051.56938239906</v>
       </c>
       <c r="H26">
-        <v>487.1991940313797</v>
+        <v>9491.16403457868</v>
       </c>
       <c r="I26">
-        <v>1.6000425</v>
+        <v>2.731146971698112</v>
       </c>
       <c r="J26">
-        <v>0.3125</v>
+        <v>0.5327830188679246</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>546.8842631718355</v>
+        <v>12905.65868760685</v>
       </c>
       <c r="C27">
-        <v>477.8631571626333</v>
+        <v>11691.55010105216</v>
       </c>
       <c r="D27">
-        <v>0.2140247625690495</v>
+        <v>0.3589291950793962</v>
       </c>
       <c r="E27">
-        <v>0.06453816882658316</v>
+        <v>0.9284090921739823</v>
       </c>
       <c r="F27">
-        <v>0.996536303611539</v>
+        <v>0.3557180292533928</v>
       </c>
       <c r="G27">
-        <v>528.084688728261</v>
+        <v>12127.08824127781</v>
       </c>
       <c r="H27">
-        <v>478.9995770062467</v>
+        <v>9458.301158806129</v>
       </c>
       <c r="I27">
-        <v>1.626084166666667</v>
+        <v>2.775545556603773</v>
       </c>
       <c r="J27">
-        <v>0.2083333333333333</v>
+        <v>0.355188679245283</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>506.5060330765919</v>
+        <v>12918.64578491547</v>
       </c>
       <c r="C28">
-        <v>486.3937785173757</v>
+        <v>11113.39415094106</v>
       </c>
       <c r="D28">
-        <v>0.1062624744849436</v>
+        <v>0.182400814746607</v>
       </c>
       <c r="E28">
-        <v>0.08208835453017935</v>
+        <v>0.9550503341159956</v>
       </c>
       <c r="F28">
-        <v>0.9842022363992161</v>
+        <v>0.327567783475869</v>
       </c>
       <c r="G28">
-        <v>528.3113397487219</v>
+        <v>12165.53975342207</v>
       </c>
       <c r="H28">
-        <v>474.9042816254066</v>
+        <v>9443.561827870917</v>
       </c>
       <c r="I28">
-        <v>1.639105</v>
+        <v>2.797744849056603</v>
       </c>
       <c r="J28">
-        <v>0.1041666666666667</v>
+        <v>0.1775943396226415</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>577.1911949244276</v>
+        <v>12777.02670126617</v>
       </c>
       <c r="C29">
-        <v>472.9328401206952</v>
+        <v>11290.3555946826</v>
       </c>
       <c r="D29">
-        <v>0.0009742274097359183</v>
+        <v>-0.0017444301012984</v>
       </c>
       <c r="E29">
-        <v>0.07980450533587</v>
+        <v>0.9408039846766441</v>
       </c>
       <c r="F29">
-        <v>1.020294981046233</v>
+        <v>0.3581701806430544</v>
       </c>
       <c r="G29">
-        <v>528.3113397487219</v>
+        <v>12165.53975342207</v>
       </c>
       <c r="H29">
-        <v>474.9042816254066</v>
+        <v>9443.561827870917</v>
       </c>
       <c r="I29">
-        <v>1.639105</v>
+        <v>2.797744849056603</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1221,782 +1221,782 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>508.7723960564975</v>
+        <v>12828.92955816421</v>
       </c>
       <c r="C30">
-        <v>487.3485890889497</v>
+        <v>10493.36668125684</v>
       </c>
       <c r="D30">
-        <v>0.2079487882382479</v>
+        <v>0.3589309244495315</v>
       </c>
       <c r="E30">
-        <v>0.08509113632359638</v>
+        <v>0.9752795590903189</v>
       </c>
       <c r="F30">
-        <v>0.992345416684931</v>
+        <v>0.309237443802805</v>
       </c>
       <c r="G30">
-        <v>528.5513007136847</v>
+        <v>12198.77050807318</v>
       </c>
       <c r="H30">
-        <v>471.3968555212785</v>
+        <v>9431.662822446795</v>
       </c>
       <c r="I30">
-        <v>1.665146666666667</v>
+        <v>2.842143433962264</v>
       </c>
       <c r="J30">
-        <v>0.2083333333333333</v>
+        <v>0.355188679245283</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>534.0158406958458</v>
+        <v>12282.35396763171</v>
       </c>
       <c r="C31">
-        <v>481.6917345122076</v>
+        <v>11031.45310839473</v>
       </c>
       <c r="D31">
-        <v>0.4224820891261774</v>
+        <v>0.7110337511792492</v>
       </c>
       <c r="E31">
-        <v>0.121893613337395</v>
+        <v>1.018028130906886</v>
       </c>
       <c r="F31">
-        <v>0.9801143380355313</v>
+        <v>0.1905935426296293</v>
       </c>
       <c r="G31">
-        <v>529.2137177146944</v>
+        <v>12266.22277343624</v>
       </c>
       <c r="H31">
-        <v>464.3968783585105</v>
+        <v>9410.838091081074</v>
       </c>
       <c r="I31">
-        <v>1.71723</v>
+        <v>2.930940603773584</v>
       </c>
       <c r="J31">
-        <v>0.4166666666666667</v>
+        <v>0.710377358490566</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>567.9918306956889</v>
+        <v>12454.31204079524</v>
       </c>
       <c r="C32">
-        <v>510.5220959249353</v>
+        <v>10836.0137400223</v>
       </c>
       <c r="D32">
-        <v>0.6266450636614047</v>
+        <v>1.057659764903491</v>
       </c>
       <c r="E32">
-        <v>0.2147533715760624</v>
+        <v>0.9851998540126714</v>
       </c>
       <c r="F32">
-        <v>0.972639219210944</v>
+        <v>0.08547610010783886</v>
       </c>
       <c r="G32">
-        <v>530.7526218312806</v>
+        <v>12369.77266293611</v>
       </c>
       <c r="H32">
-        <v>453.962878819236</v>
+        <v>9388.696617610367</v>
       </c>
       <c r="I32">
-        <v>1.795355</v>
+        <v>3.064136358490565</v>
       </c>
       <c r="J32">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>616.8995120422836</v>
+        <v>12770.26215731317</v>
       </c>
       <c r="C33">
-        <v>492.366999748234</v>
+        <v>10845.78844395074</v>
       </c>
       <c r="D33">
-        <v>0.8263132677421949</v>
+        <v>1.413786729760019</v>
       </c>
       <c r="E33">
-        <v>0.3343844963046443</v>
+        <v>0.9812277653190233</v>
       </c>
       <c r="F33">
-        <v>0.9259316840920119</v>
+        <v>-0.1092320269366152</v>
       </c>
       <c r="G33">
-        <v>533.884005017119</v>
+        <v>12510.53684901276</v>
       </c>
       <c r="H33">
-        <v>440.253453390231</v>
+        <v>9377.771688574934</v>
       </c>
       <c r="I33">
-        <v>1.899521666666667</v>
+        <v>3.241730698113207</v>
       </c>
       <c r="J33">
-        <v>0.8333333333333334</v>
+        <v>1.420754716981132</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>662.8106260632873</v>
+        <v>13416.42410596463</v>
       </c>
       <c r="C34">
-        <v>520.0772067706911</v>
+        <v>11347.84098829348</v>
       </c>
       <c r="D34">
-        <v>1.042251938918581</v>
+        <v>1.776049611832637</v>
       </c>
       <c r="E34">
-        <v>0.4595498940132768</v>
+        <v>0.9648512396935344</v>
       </c>
       <c r="F34">
-        <v>0.8838404963211465</v>
+        <v>-0.3057531161267144</v>
       </c>
       <c r="G34">
-        <v>539.5588721014674</v>
+        <v>12686.13710335937</v>
       </c>
       <c r="H34">
-        <v>423.6165557800813</v>
+        <v>9395.414967537417</v>
       </c>
       <c r="I34">
-        <v>2.02973</v>
+        <v>3.463723622641509</v>
       </c>
       <c r="J34">
-        <v>1.041666666666667</v>
+        <v>1.775943396226415</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>714.7804652535298</v>
+        <v>15727.61294800536</v>
       </c>
       <c r="C35">
-        <v>562.1686222035852</v>
+        <v>12482.75269717793</v>
       </c>
       <c r="D35">
-        <v>1.250520975016052</v>
+        <v>2.119502436117382</v>
       </c>
       <c r="E35">
-        <v>0.5529828244464023</v>
+        <v>0.8246777457892603</v>
       </c>
       <c r="F35">
-        <v>0.810915701123885</v>
+        <v>-0.5434637307700346</v>
       </c>
       <c r="G35">
-        <v>548.9032424053669</v>
+        <v>12887.02494674531</v>
       </c>
       <c r="H35">
-        <v>404.7054735084053</v>
+        <v>9462.462504638381</v>
       </c>
       <c r="I35">
-        <v>2.18598</v>
+        <v>3.730115132075471</v>
       </c>
       <c r="J35">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>797.4402422109009</v>
+        <v>12641.39286230736</v>
       </c>
       <c r="C36">
-        <v>579.8891242948237</v>
+        <v>15744.12728530986</v>
       </c>
       <c r="D36">
-        <v>1.23696907507225</v>
+        <v>2.133958789441324</v>
       </c>
       <c r="E36">
-        <v>0.6924688927944936</v>
+        <v>0.667837214733489</v>
       </c>
       <c r="F36">
-        <v>0.7306181801812168</v>
+        <v>-0.7663475036263736</v>
       </c>
       <c r="G36">
-        <v>561.0766255011723</v>
+        <v>13063.17650197248</v>
       </c>
       <c r="H36">
-        <v>387.478894246542</v>
+        <v>9580.029198232323</v>
       </c>
       <c r="I36">
-        <v>2.34223</v>
+        <v>3.996506641509433</v>
       </c>
       <c r="J36">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>718.5788633920349</v>
+        <v>10930.11182087754</v>
       </c>
       <c r="C37">
-        <v>694.3547131140994</v>
+        <v>14638.30847290183</v>
       </c>
       <c r="D37">
-        <v>1.243473287845761</v>
+        <v>2.134599692180766</v>
       </c>
       <c r="E37">
-        <v>0.8022039217289153</v>
+        <v>0.4322608883820352</v>
       </c>
       <c r="F37">
-        <v>0.6135218765385763</v>
+        <v>-0.9129363372573255</v>
       </c>
       <c r="G37">
-        <v>575.7824238197677</v>
+        <v>13202.16502279608</v>
       </c>
       <c r="H37">
-        <v>372.356533819833</v>
+        <v>9739.821215964221</v>
       </c>
       <c r="I37">
-        <v>2.49848</v>
+        <v>4.262898150943395</v>
       </c>
       <c r="J37">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>617.2626906856469</v>
+        <v>10306.50790002454</v>
       </c>
       <c r="C38">
-        <v>724.751537516715</v>
+        <v>13450.85302494131</v>
       </c>
       <c r="D38">
-        <v>1.245548116981039</v>
+        <v>2.13757543270912</v>
       </c>
       <c r="E38">
-        <v>0.8727218982697016</v>
+        <v>0.1766683750776789</v>
       </c>
       <c r="F38">
-        <v>0.4547645739142988</v>
+        <v>-0.9929796120315368</v>
       </c>
       <c r="G38">
-        <v>592.6623389326161</v>
+        <v>13294.18545766838</v>
       </c>
       <c r="H38">
-        <v>359.7068399561249</v>
+        <v>9930.565907679285</v>
       </c>
       <c r="I38">
-        <v>2.65473</v>
+        <v>4.529289660377358</v>
       </c>
       <c r="J38">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>621.091199876562</v>
+        <v>10377.84115577115</v>
       </c>
       <c r="C39">
-        <v>692.6489012388105</v>
+        <v>13200.31247325138</v>
       </c>
       <c r="D39">
-        <v>1.254335533568128</v>
+        <v>2.130047252135577</v>
       </c>
       <c r="E39">
-        <v>0.9422714878992992</v>
+        <v>-0.1075613897264519</v>
       </c>
       <c r="F39">
-        <v>0.3118668293906979</v>
+        <v>-0.9665191633218844</v>
       </c>
       <c r="G39">
-        <v>611.3051012895887</v>
+        <v>13332.74615460245</v>
       </c>
       <c r="H39">
-        <v>349.8380152660241</v>
+        <v>10138.80704315334</v>
       </c>
       <c r="I39">
-        <v>2.81098</v>
+        <v>-1.487504137368266</v>
       </c>
       <c r="J39">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>642.9937955139974</v>
+        <v>10775.41321210065</v>
       </c>
       <c r="C40">
-        <v>680.2590452715034</v>
+        <v>13936.21897404138</v>
       </c>
       <c r="D40">
-        <v>1.255978512442824</v>
+        <v>2.133677419433115</v>
       </c>
       <c r="E40">
-        <v>0.97469263026558</v>
+        <v>-0.3397869257775535</v>
       </c>
       <c r="F40">
-        <v>0.1616786794312184</v>
+        <v>-0.9461045914045665</v>
       </c>
       <c r="G40">
-        <v>631.2564905681041</v>
+        <v>13315.12681972858</v>
       </c>
       <c r="H40">
-        <v>342.9905080612349</v>
+        <v>10349.85409214992</v>
       </c>
       <c r="I40">
-        <v>2.96723</v>
+        <v>-1.221112627934304</v>
       </c>
       <c r="J40">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>652.9453524198796</v>
+        <v>12007.10192944063</v>
       </c>
       <c r="C41">
-        <v>696.1517146354404</v>
+        <v>16428.57835661327</v>
       </c>
       <c r="D41">
-        <v>1.246600516509647</v>
+        <v>2.137181344310218</v>
       </c>
       <c r="E41">
-        <v>0.9966080870038043</v>
+        <v>-0.6067269593467791</v>
       </c>
       <c r="F41">
-        <v>0.02008902702764507</v>
+        <v>-0.794199904140837</v>
       </c>
       <c r="G41">
-        <v>652.0304024934571</v>
+        <v>13242.57042250678</v>
       </c>
       <c r="H41">
-        <v>339.3311539679312</v>
+        <v>10548.8185791162</v>
       </c>
       <c r="I41">
-        <v>3.12348</v>
+        <v>-0.954721118500342</v>
       </c>
       <c r="J41">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>688.6706383680716</v>
+        <v>8630.151250337351</v>
       </c>
       <c r="C42">
-        <v>634.6527945710399</v>
+        <v>13869.25588736213</v>
       </c>
       <c r="D42">
-        <v>1.246296656615114</v>
+        <v>2.119458202392301</v>
       </c>
       <c r="E42">
-        <v>0.9861107905415689</v>
+        <v>-0.8057751550168915</v>
       </c>
       <c r="F42">
-        <v>-0.1709290364298028</v>
+        <v>-0.6598330209469859</v>
       </c>
       <c r="G42">
-        <v>673.1206924935432</v>
+        <v>13120.19550949515</v>
       </c>
       <c r="H42">
-        <v>338.9491110714266</v>
+        <v>10721.66440208267</v>
       </c>
       <c r="I42">
-        <v>3.27973</v>
+        <v>-0.6883296090663797</v>
       </c>
       <c r="J42">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>699.1688194514069</v>
+        <v>7344.266442834069</v>
       </c>
       <c r="C43">
-        <v>668.9663162327706</v>
+        <v>11657.01031917912</v>
       </c>
       <c r="D43">
-        <v>1.245422801649168</v>
+        <v>2.136811454691694</v>
       </c>
       <c r="E43">
-        <v>0.946262674192743</v>
+        <v>-0.9445256979201894</v>
       </c>
       <c r="F43">
-        <v>-0.2755269037843285</v>
+        <v>-0.3860546280314415</v>
       </c>
       <c r="G43">
-        <v>694.0135076240537</v>
+        <v>12956.63511256651</v>
       </c>
       <c r="H43">
-        <v>341.8536876300342</v>
+        <v>10856.19802021624</v>
       </c>
       <c r="I43">
-        <v>3.43598</v>
+        <v>-0.4219380996324175</v>
       </c>
       <c r="J43">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>813.3960971340376</v>
+        <v>7385.482645271954</v>
       </c>
       <c r="C44">
-        <v>682.1914794456217</v>
+        <v>11163.81598104097</v>
       </c>
       <c r="D44">
-        <v>1.250812164711933</v>
+        <v>2.128640073628417</v>
       </c>
       <c r="E44">
-        <v>0.8898426225336044</v>
+        <v>-0.9836300994733621</v>
       </c>
       <c r="F44">
-        <v>-0.4455867631915841</v>
+        <v>-0.165382613555749</v>
       </c>
       <c r="G44">
-        <v>714.1998063037838</v>
+        <v>12763.42772506944</v>
       </c>
       <c r="H44">
-        <v>347.9741152846368</v>
+        <v>10942.9286564881</v>
       </c>
       <c r="I44">
-        <v>3.59223</v>
+        <v>-0.1555465901984552</v>
       </c>
       <c r="J44">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>632.5974495347427</v>
+        <v>7330.701328013494</v>
       </c>
       <c r="C45">
-        <v>791.5529542978593</v>
+        <v>10829.57253688</v>
       </c>
       <c r="D45">
-        <v>1.247432608225318</v>
+        <v>2.129213121521464</v>
       </c>
       <c r="E45">
-        <v>0.8417992590354519</v>
+        <v>-1.028493159749969</v>
       </c>
       <c r="F45">
-        <v>-0.5774771004763068</v>
+        <v>0.0805558927184281</v>
       </c>
       <c r="G45">
-        <v>733.1877608238102</v>
+        <v>12554.20330998638</v>
       </c>
       <c r="H45">
-        <v>357.1612732895865</v>
+        <v>10975.73783180102</v>
       </c>
       <c r="I45">
-        <v>3.74848</v>
+        <v>0.1108449192355071</v>
       </c>
       <c r="J45">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>566.6560250731485</v>
+        <v>8315.346213875981</v>
       </c>
       <c r="C46">
-        <v>863.2065898385258</v>
+        <v>11688.69038731345</v>
       </c>
       <c r="D46">
-        <v>1.251973009105234</v>
+        <v>2.136104606672951</v>
       </c>
       <c r="E46">
-        <v>0.7207221622455513</v>
+        <v>-0.9479651978328545</v>
       </c>
       <c r="F46">
-        <v>-0.673877199729856</v>
+        <v>0.3776359253412359</v>
       </c>
       <c r="G46">
-        <v>750.5147404504409</v>
+        <v>12343.72176376615</v>
       </c>
       <c r="H46">
-        <v>369.1913217550261</v>
+        <v>10952.31099777881</v>
       </c>
       <c r="I46">
-        <v>3.90473</v>
+        <v>0.3772364286694694</v>
       </c>
       <c r="J46">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>496.6710298612746</v>
+        <v>9986.327464957745</v>
       </c>
       <c r="C47">
-        <v>984.4565067659529</v>
+        <v>13040.60710648482</v>
       </c>
       <c r="D47">
-        <v>1.251702697507621</v>
+        <v>2.125439645596026</v>
       </c>
       <c r="E47">
-        <v>0.5872464457801153</v>
+        <v>-0.8340684106702198</v>
       </c>
       <c r="F47">
-        <v>-0.8036025043544605</v>
+        <v>0.5783209039277262</v>
       </c>
       <c r="G47">
-        <v>765.7585831604374</v>
+        <v>12146.83166813554</v>
       </c>
       <c r="H47">
-        <v>383.7711553787472</v>
+        <v>10874.30081835247</v>
       </c>
       <c r="I47">
-        <v>4.060980000000001</v>
+        <v>0.6436279381034317</v>
       </c>
       <c r="J47">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>483.730331917509</v>
+        <v>11569.02862197441</v>
       </c>
       <c r="C48">
-        <v>889.7011050980568</v>
+        <v>10260.94605453625</v>
       </c>
       <c r="D48">
-        <v>1.256879747227289</v>
+        <v>2.131214058855462</v>
       </c>
       <c r="E48">
-        <v>0.4822399389892253</v>
+        <v>-0.5949588280028946</v>
       </c>
       <c r="F48">
-        <v>-0.8822812954194184</v>
+        <v>0.8033132457994382</v>
       </c>
       <c r="G48">
-        <v>778.547881379078</v>
+        <v>11977.42278554005</v>
       </c>
       <c r="H48">
-        <v>400.5455447905015</v>
+        <v>10747.21058131865</v>
       </c>
       <c r="I48">
-        <v>4.217230000000001</v>
+        <v>0.9100194475373939</v>
       </c>
       <c r="J48">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>453.2539266073014</v>
+        <v>10227.81718149453</v>
       </c>
       <c r="C49">
-        <v>801.3253965532929</v>
+        <v>8738.941694822723</v>
       </c>
       <c r="D49">
-        <v>1.248174084011088</v>
+        <v>2.134116148569181</v>
       </c>
       <c r="E49">
-        <v>0.3245038529414122</v>
+        <v>-0.3701696760546666</v>
       </c>
       <c r="F49">
-        <v>-0.9569418952672819</v>
+        <v>0.9382871390122177</v>
       </c>
       <c r="G49">
-        <v>788.5710311148927</v>
+        <v>11847.44619522458</v>
       </c>
       <c r="H49">
-        <v>419.1057915139677</v>
+        <v>10580.00596469122</v>
       </c>
       <c r="I49">
-        <v>4.373480000000001</v>
+        <v>1.176410956971356</v>
       </c>
       <c r="J49">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>478.7449608118445</v>
+        <v>9672.292154566754</v>
       </c>
       <c r="C50">
-        <v>824.3665030108002</v>
+        <v>8276.09531448461</v>
       </c>
       <c r="D50">
-        <v>1.248199572169718</v>
+        <v>2.145435005122278</v>
       </c>
       <c r="E50">
-        <v>0.2076290496507763</v>
+        <v>-0.1048459260523678</v>
       </c>
       <c r="F50">
-        <v>-0.9678109849856038</v>
+        <v>1.00325248188035</v>
       </c>
       <c r="G50">
-        <v>795.5838240140381</v>
+        <v>11766.07119520372</v>
       </c>
       <c r="H50">
-        <v>438.9996856731362</v>
+        <v>10384.48254608576</v>
       </c>
       <c r="I50">
-        <v>4.529730000000001</v>
+        <v>1.442802466405318</v>
       </c>
       <c r="J50">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>461.4411474281351</v>
+        <v>9783.710685363389</v>
       </c>
       <c r="C51">
-        <v>796.2279747036786</v>
+        <v>8273.578682603971</v>
       </c>
       <c r="D51">
-        <v>1.048806463942753</v>
+        <v>1.77278303646567</v>
       </c>
       <c r="E51">
-        <v>0.0764953869647297</v>
+        <v>0.09575730777069912</v>
       </c>
       <c r="F51">
-        <v>-0.9710561248946047</v>
+        <v>1.027165800308411</v>
       </c>
       <c r="G51">
-        <v>798.7768018008554</v>
+        <v>11743.5439051319</v>
       </c>
       <c r="H51">
-        <v>456.285384136563</v>
+        <v>10209.44181990707</v>
       </c>
       <c r="I51">
-        <v>4.659938333333334</v>
+        <v>1.66479539093362</v>
       </c>
       <c r="J51">
-        <v>1.041666666666667</v>
+        <v>1.775943396226415</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>476.3180722876341</v>
+        <v>10559.68775633248</v>
       </c>
       <c r="C52">
-        <v>792.2650099700767</v>
+        <v>8611.763295815736</v>
       </c>
       <c r="D52">
-        <v>0.8342532373329236</v>
+        <v>1.427213975599432</v>
       </c>
       <c r="E52">
-        <v>-0.03993797597075333</v>
+        <v>0.2037586884366693</v>
       </c>
       <c r="F52">
-        <v>-1.012771196586489</v>
+        <v>0.9559727320651545</v>
       </c>
       <c r="G52">
-        <v>799.5140508791379</v>
+        <v>11756.79586253658</v>
       </c>
       <c r="H52">
-        <v>470.3285451071768</v>
+        <v>10068.8776147153</v>
       </c>
       <c r="I52">
-        <v>-1.519080307179586</v>
+        <v>1.842389730556262</v>
       </c>
       <c r="J52">
-        <v>0.8333333333333334</v>
+        <v>1.420754716981132</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>488.576436770754</v>
+        <v>10747.3829817581</v>
       </c>
       <c r="C53">
-        <v>791.6777129586555</v>
+        <v>8969.883184046237</v>
       </c>
       <c r="D53">
-        <v>0.6352148676734142</v>
+        <v>1.062014337729763</v>
       </c>
       <c r="E53">
-        <v>-0.09809258014398539</v>
+        <v>0.4166406177919523</v>
       </c>
       <c r="F53">
-        <v>-0.9892125851752257</v>
+        <v>0.9075992796027915</v>
       </c>
       <c r="G53">
-        <v>798.9688515874373</v>
+        <v>11785.20279886018</v>
       </c>
       <c r="H53">
-        <v>480.8613191956093</v>
+        <v>9966.868446345017</v>
       </c>
       <c r="I53">
-        <v>-1.440955307179586</v>
+        <v>1.975585485273243</v>
       </c>
       <c r="J53">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>488.4416354199631</v>
+        <v>11378.02976311131</v>
       </c>
       <c r="C54">
-        <v>826.7686073155558</v>
+        <v>9237.842597909932</v>
       </c>
       <c r="D54">
-        <v>0.4129616857273756</v>
+        <v>0.7106632928528264</v>
       </c>
       <c r="E54">
-        <v>-0.1707547721161325</v>
+        <v>0.513612167079335</v>
       </c>
       <c r="F54">
-        <v>-0.9839133342488632</v>
+        <v>0.9419066319810564</v>
       </c>
       <c r="G54">
-        <v>798.0584699321112</v>
+        <v>11813.00438010079</v>
       </c>
       <c r="H54">
-        <v>487.8333835817252</v>
+        <v>9901.97969832516</v>
       </c>
       <c r="I54">
-        <v>-1.388871973846252</v>
+        <v>2.064382655084564</v>
       </c>
       <c r="J54">
-        <v>0.4166666666666667</v>
+        <v>0.710377358490566</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>470.8800308364685</v>
+        <v>11659.82423605173</v>
       </c>
       <c r="C55">
-        <v>826.3069819277096</v>
+        <v>9492.235247477816</v>
       </c>
       <c r="D55">
-        <v>0.2128041343407647</v>
+        <v>0.3582161505534067</v>
       </c>
       <c r="E55">
-        <v>-0.194523660292678</v>
+        <v>0.5192244325280709</v>
       </c>
       <c r="F55">
-        <v>-0.9683623735841954</v>
+        <v>0.872085285440674</v>
       </c>
       <c r="G55">
-        <v>797.4224142565056</v>
+        <v>11829.72758732799</v>
       </c>
       <c r="H55">
-        <v>491.2909914713152</v>
+        <v>9870.895880593074</v>
       </c>
       <c r="I55">
-        <v>-1.362830307179586</v>
+        <v>2.108781239990224</v>
       </c>
       <c r="J55">
-        <v>0.2083333333333333</v>
+        <v>0.355188679245283</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>501.3358263690218</v>
+        <v>11807.36631749757</v>
       </c>
       <c r="C56">
-        <v>817.1928264868076</v>
+        <v>9541.070559909227</v>
       </c>
       <c r="D56">
-        <v>0.003171308058997604</v>
+        <v>0.001047434802589781</v>
       </c>
       <c r="E56">
-        <v>-0.2187312220611685</v>
+        <v>0.5284894580773128</v>
       </c>
       <c r="F56">
-        <v>-0.9800787353407883</v>
+        <v>0.8842001005897807</v>
       </c>
       <c r="G56">
-        <v>797.4224142565056</v>
+        <v>11829.72758732799</v>
       </c>
       <c r="H56">
-        <v>491.2909914713152</v>
+        <v>9870.895880593074</v>
       </c>
       <c r="I56">
-        <v>-1.362830307179586</v>
+        <v>2.108781239990224</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -2004,753 +2004,753 @@
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>502.3153497248508</v>
+        <v>12271.89045497733</v>
       </c>
       <c r="C57">
-        <v>818.3699320424932</v>
+        <v>9870.357175137102</v>
       </c>
       <c r="D57">
-        <v>0.308015235956901</v>
+        <v>0.5354443907691059</v>
       </c>
       <c r="E57">
-        <v>-0.2031036358470479</v>
+        <v>0.5559038335159681</v>
       </c>
       <c r="F57">
-        <v>-0.9852849435155032</v>
+        <v>0.8140993547511042</v>
       </c>
       <c r="G57">
-        <v>796.8175211676936</v>
+        <v>11844.79954683676</v>
       </c>
       <c r="H57">
-        <v>494.1575526862143</v>
+        <v>9845.636761263218</v>
       </c>
       <c r="I57">
-        <v>-1.323767807179586</v>
+        <v>2.175379117348715</v>
       </c>
       <c r="J57">
-        <v>0.3125</v>
+        <v>0.5327830188679246</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>526.3639104528281</v>
+        <v>13800.91642531929</v>
       </c>
       <c r="C58">
-        <v>823.2513668196241</v>
+        <v>10680.51494551077</v>
       </c>
       <c r="D58">
-        <v>0.6273332467870465</v>
+        <v>1.063810163885519</v>
       </c>
       <c r="E58">
-        <v>-0.3021113697310484</v>
+        <v>0.6735176383290037</v>
       </c>
       <c r="F58">
-        <v>-0.9254253956052892</v>
+        <v>0.6934531039654418</v>
       </c>
       <c r="G58">
-        <v>795.384764720511</v>
+        <v>11878.23856323959</v>
       </c>
       <c r="H58">
-        <v>499.8390563915445</v>
+        <v>9797.236549765468</v>
       </c>
       <c r="I58">
-        <v>-1.245642807179586</v>
+        <v>2.308574872065696</v>
       </c>
       <c r="J58">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>511.4880211997345</v>
+        <v>15232.30878792011</v>
       </c>
       <c r="C59">
-        <v>895.1093184154605</v>
+        <v>12913.43118695817</v>
       </c>
       <c r="D59">
-        <v>0.9401490262189488</v>
+        <v>1.601341060179222</v>
       </c>
       <c r="E59">
-        <v>-0.3965509781558956</v>
+        <v>0.845172315377507</v>
       </c>
       <c r="F59">
-        <v>-0.9048302595292942</v>
+        <v>0.6082996692382091</v>
       </c>
       <c r="G59">
-        <v>792.5770612189314</v>
+        <v>11937.59429781593</v>
       </c>
       <c r="H59">
-        <v>508.1675869147595</v>
+        <v>9731.940451660845</v>
       </c>
       <c r="I59">
-        <v>-1.128455307179586</v>
+        <v>2.508368504141167</v>
       </c>
       <c r="J59">
-        <v>0.9375</v>
+        <v>1.598349056603774</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>368.9109377337188</v>
+        <v>13016.48363289222</v>
       </c>
       <c r="C60">
-        <v>920.8926175509343</v>
+        <v>11300.66381720773</v>
       </c>
       <c r="D60">
-        <v>1.255433626184903</v>
+        <v>2.123175035421422</v>
       </c>
       <c r="E60">
-        <v>-0.5672569284796303</v>
+        <v>0.9327838690875558</v>
       </c>
       <c r="F60">
-        <v>-0.8391316882680853</v>
+        <v>0.3516440700520528</v>
       </c>
       <c r="G60">
-        <v>787.5607760153888</v>
+        <v>12032.43980363997</v>
       </c>
       <c r="H60">
-        <v>518.7584312776618</v>
+        <v>9662.317731310053</v>
       </c>
       <c r="I60">
-        <v>-0.9722053071795855</v>
+        <v>2.77476001357513</v>
       </c>
       <c r="J60">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>329.3756716069964</v>
+        <v>12009.02567176123</v>
       </c>
       <c r="C61">
-        <v>734.2288448152951</v>
+        <v>10264.94823872048</v>
       </c>
       <c r="D61">
-        <v>1.563489280225183</v>
+        <v>2.656458851600211</v>
       </c>
       <c r="E61">
-        <v>-0.7059428128341402</v>
+        <v>1.003277132147673</v>
       </c>
       <c r="F61">
-        <v>-0.677478358449581</v>
+        <v>0.02478848677913418</v>
       </c>
       <c r="G61">
-        <v>779.3066886381966</v>
+        <v>12169.72523900782</v>
       </c>
       <c r="H61">
-        <v>530.8599503046717</v>
+        <v>9609.569403803791</v>
       </c>
       <c r="I61">
-        <v>-0.7768928071795855</v>
+        <v>3.107749400367582</v>
       </c>
       <c r="J61">
-        <v>1.5625</v>
+        <v>2.663915094339623</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>261.9940597832755</v>
+        <v>13193.61427814199</v>
       </c>
       <c r="C62">
-        <v>609.1056727882503</v>
+        <v>10992.3530292626</v>
       </c>
       <c r="D62">
-        <v>1.868268421178967</v>
+        <v>3.197195231728398</v>
       </c>
       <c r="E62">
-        <v>-0.8687187272810025</v>
+        <v>0.9221538763454352</v>
       </c>
       <c r="F62">
-        <v>-0.5453579066911748</v>
+        <v>-0.3398862711485907</v>
       </c>
       <c r="G62">
-        <v>766.7718098353444</v>
+        <v>12346.10855407157</v>
       </c>
       <c r="H62">
-        <v>543.183395111763</v>
+        <v>9603.597738520102</v>
       </c>
       <c r="I62">
-        <v>-0.5425178071795855</v>
+        <v>3.507336664518526</v>
       </c>
       <c r="J62">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>267.8479553664058</v>
+        <v>13882.42626611441</v>
       </c>
       <c r="C63">
-        <v>569.6014544917203</v>
+        <v>14344.96485462184</v>
       </c>
       <c r="D63">
-        <v>1.874407182899997</v>
+        <v>3.198055688692899</v>
       </c>
       <c r="E63">
-        <v>-0.9656038836918414</v>
+        <v>0.7299031490940163</v>
       </c>
       <c r="F63">
-        <v>-0.3251256890463738</v>
+        <v>-0.6804348821633435</v>
       </c>
       <c r="G63">
-        <v>751.7177019856457</v>
+        <v>12510.91988691638</v>
       </c>
       <c r="H63">
-        <v>552.2588739071361</v>
+        <v>9666.716350553777</v>
       </c>
       <c r="I63">
-        <v>-0.3081428071795855</v>
+        <v>3.906923928669469</v>
       </c>
       <c r="J63">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>260.5537748068169</v>
+        <v>10748.48764330537</v>
       </c>
       <c r="C64">
-        <v>558.0717194872589</v>
+        <v>13760.22575803085</v>
       </c>
       <c r="D64">
-        <v>1.868556789028315</v>
+        <v>3.198948913175626</v>
       </c>
       <c r="E64">
-        <v>-1.000317824805288</v>
+        <v>0.3704365291162145</v>
       </c>
       <c r="F64">
-        <v>-0.08685687871368745</v>
+        <v>-0.9191910165541834</v>
       </c>
       <c r="G64">
-        <v>734.9675333937939</v>
+        <v>12638.19210533018</v>
       </c>
       <c r="H64">
-        <v>557.5901336700971</v>
+        <v>9788.980478731966</v>
       </c>
       <c r="I64">
-        <v>-0.07376780717958553</v>
+        <v>4.306511192820413</v>
       </c>
       <c r="J64">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>292.3996246274632</v>
+        <v>9832.211633558671</v>
       </c>
       <c r="C65">
-        <v>522.4137141495271</v>
+        <v>12959.76808644129</v>
       </c>
       <c r="D65">
-        <v>1.866974474617432</v>
+        <v>3.196198726580574</v>
       </c>
       <c r="E65">
-        <v>-1.008222333427798</v>
+        <v>-0.01448592355931661</v>
       </c>
       <c r="F65">
-        <v>0.1757162462307806</v>
+        <v>-1.01104359746829</v>
       </c>
       <c r="G65">
-        <v>717.4372140572953</v>
+        <v>12707.87261665789</v>
       </c>
       <c r="H65">
-        <v>558.8856576860871</v>
+        <v>9951.126588645986</v>
       </c>
       <c r="I65">
-        <v>0.1606071928204145</v>
+        <v>4.706098456971356</v>
       </c>
       <c r="J65">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>329.6980896847891</v>
+        <v>11151.82453529971</v>
       </c>
       <c r="C66">
-        <v>600.2536427612669</v>
+        <v>13910.90715529846</v>
       </c>
       <c r="D66">
-        <v>1.875487249452075</v>
+        <v>3.19954498852411</v>
       </c>
       <c r="E66">
-        <v>-0.9330152796533177</v>
+        <v>-0.3589123407267321</v>
       </c>
       <c r="F66">
-        <v>0.3772966697294192</v>
+        <v>-0.947311319224388</v>
       </c>
       <c r="G66">
-        <v>700.0853131184084</v>
+        <v>12708.98278842917</v>
       </c>
       <c r="H66">
-        <v>556.0746058682292</v>
+        <v>10127.60747185371</v>
       </c>
       <c r="I66">
-        <v>0.3949821928204145</v>
+        <v>-1.177499586057287</v>
       </c>
       <c r="J66">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>401.3791187783542</v>
+        <v>10247.11199924227</v>
       </c>
       <c r="C67">
-        <v>513.8661799615634</v>
+        <v>14539.46922209319</v>
       </c>
       <c r="D67">
-        <v>1.874679147104836</v>
+        <v>3.204352147819759</v>
       </c>
       <c r="E67">
-        <v>-0.8087747465371772</v>
+        <v>-0.7715063695966192</v>
       </c>
       <c r="F67">
-        <v>0.6160793876476122</v>
+        <v>-0.7003159898930295</v>
       </c>
       <c r="G67">
-        <v>683.8606436865964</v>
+        <v>12641.34770562656</v>
       </c>
       <c r="H67">
-        <v>549.3106883388642</v>
+        <v>10290.61738012135</v>
       </c>
       <c r="I67">
-        <v>0.6293571928204145</v>
+        <v>-0.7779123219063437</v>
       </c>
       <c r="J67">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>481.3939085632821</v>
+        <v>8249.830785195612</v>
       </c>
       <c r="C68">
-        <v>444.1014683837616</v>
+        <v>11352.9099256783</v>
       </c>
       <c r="D68">
-        <v>1.866786483593837</v>
+        <v>3.193648149989493</v>
       </c>
       <c r="E68">
-        <v>-0.6557800530110219</v>
+        <v>-0.9297367947298673</v>
       </c>
       <c r="F68">
-        <v>0.7572107298869452</v>
+        <v>-0.3528257140191572</v>
       </c>
       <c r="G68">
-        <v>669.6503811271307</v>
+        <v>12515.62372972104</v>
       </c>
       <c r="H68">
-        <v>538.9637604611474</v>
+        <v>10414.47300777569</v>
       </c>
       <c r="I68">
-        <v>0.8637321928204145</v>
+        <v>-0.3783250577554003</v>
       </c>
       <c r="J68">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>542.2565029519934</v>
+        <v>7726.460485276591</v>
       </c>
       <c r="C69">
-        <v>385.2316447878238</v>
+        <v>10390.84173899366</v>
       </c>
       <c r="D69">
-        <v>1.874698694333592</v>
+        <v>3.193089058235237</v>
       </c>
       <c r="E69">
-        <v>-0.4634723520774357</v>
+        <v>-0.9833092232026419</v>
       </c>
       <c r="F69">
-        <v>0.9113582724333436</v>
+        <v>0.05893760731165294</v>
       </c>
       <c r="G69">
-        <v>658.2315517412113</v>
+        <v>12351.61951736392</v>
       </c>
       <c r="H69">
-        <v>525.5995989097859</v>
+        <v>10479.66006897851</v>
       </c>
       <c r="I69">
-        <v>1.098107192820414</v>
+        <v>0.0212622063955431</v>
       </c>
       <c r="J69">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>497.0747147388929</v>
+        <v>8417.137265965417</v>
       </c>
       <c r="C70">
-        <v>373.7813119357455</v>
+        <v>11659.66395681646</v>
       </c>
       <c r="D70">
-        <v>1.870314672845247</v>
+        <v>3.199967344384829</v>
       </c>
       <c r="E70">
-        <v>-0.1964108806209526</v>
+        <v>-0.9257428575813353</v>
       </c>
       <c r="F70">
-        <v>1.006392435683172</v>
+        <v>0.4175818460931776</v>
       </c>
       <c r="G70">
-        <v>650.2285444677933</v>
+        <v>12175.17503351455</v>
       </c>
       <c r="H70">
-        <v>509.9489646383819</v>
+        <v>10475.90790450056</v>
       </c>
       <c r="I70">
-        <v>1.332482192820414</v>
+        <v>0.4208494705464865</v>
       </c>
       <c r="J70">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>502.1053308103876</v>
+        <v>11917.11908386549</v>
       </c>
       <c r="C71">
-        <v>359.0606778434559</v>
+        <v>10753.54372057597</v>
       </c>
       <c r="D71">
-        <v>1.87380389741105</v>
+        <v>3.199893311645742</v>
       </c>
       <c r="E71">
-        <v>0.01610990678516075</v>
+        <v>-0.6979033815442928</v>
       </c>
       <c r="F71">
-        <v>1.017094911450889</v>
+        <v>0.7423200273077254</v>
       </c>
       <c r="G71">
-        <v>646.0789688946037</v>
+        <v>12014.09029144338</v>
       </c>
       <c r="H71">
-        <v>492.8676444002384</v>
+        <v>10403.80769305144</v>
       </c>
       <c r="I71">
-        <v>1.566857192820414</v>
+        <v>0.8204367346974299</v>
       </c>
       <c r="J71">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>554.5775712496583</v>
+        <v>10345.09626587224</v>
       </c>
       <c r="C72">
-        <v>341.4522804188754</v>
+        <v>8569.440573533602</v>
       </c>
       <c r="D72">
-        <v>1.8751492701731</v>
+        <v>3.194024742728512</v>
       </c>
       <c r="E72">
-        <v>0.1978384088986537</v>
+        <v>-0.3463107530548487</v>
       </c>
       <c r="F72">
-        <v>1.00068470798958</v>
+        <v>0.9096587386026089</v>
       </c>
       <c r="G72">
-        <v>646.0097264842786</v>
+        <v>11893.74527396173</v>
       </c>
       <c r="H72">
-        <v>475.2896557779802</v>
+        <v>10274.71930710413</v>
       </c>
       <c r="I72">
-        <v>1.801232192820414</v>
+        <v>1.220023998848373</v>
       </c>
       <c r="J72">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>590.6201953600161</v>
+        <v>10027.97354006875</v>
       </c>
       <c r="C73">
-        <v>401.5097010717516</v>
+        <v>7807.334689978575</v>
       </c>
       <c r="D73">
-        <v>1.87975920071581</v>
+        <v>3.199356814421565</v>
       </c>
       <c r="E73">
-        <v>0.4288635476839592</v>
+        <v>0.05242291868488809</v>
       </c>
       <c r="F73">
-        <v>0.8681743330843018</v>
+        <v>1.00720115307645</v>
       </c>
       <c r="G73">
-        <v>650.0246034563729</v>
+        <v>11833.10114670105</v>
       </c>
       <c r="H73">
-        <v>458.1761745010871</v>
+        <v>10108.98148870431</v>
       </c>
       <c r="I73">
-        <v>2.035607192820414</v>
+        <v>1.619611262999317</v>
       </c>
       <c r="J73">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>750.3758345961311</v>
+        <v>11380.28174245785</v>
       </c>
       <c r="C74">
-        <v>450.2061266091498</v>
+        <v>9300.177676910425</v>
       </c>
       <c r="D74">
-        <v>1.873914333824114</v>
+        <v>3.207627971430667</v>
       </c>
       <c r="E74">
-        <v>0.6641031875574772</v>
+        <v>0.4200175544570442</v>
       </c>
       <c r="F74">
-        <v>0.7669790724845622</v>
+        <v>0.9245513519780665</v>
       </c>
       <c r="G74">
-        <v>657.9040637544382</v>
+        <v>11841.71279914181</v>
       </c>
       <c r="H74">
-        <v>442.4629767384788</v>
+        <v>9932.707344084691</v>
       </c>
       <c r="I74">
-        <v>2.269982192820414</v>
+        <v>2.01919852715026</v>
       </c>
       <c r="J74">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>798.3581546415575</v>
+        <v>15438.20685094352</v>
       </c>
       <c r="C75">
-        <v>520.7722796306152</v>
+        <v>12092.15551144359</v>
       </c>
       <c r="D75">
-        <v>1.883735242237121</v>
+        <v>3.195000542220607</v>
       </c>
       <c r="E75">
-        <v>0.8209971364926143</v>
+        <v>0.7585597534293261</v>
       </c>
       <c r="F75">
-        <v>0.5902708563453828</v>
+        <v>0.6517713429562157</v>
       </c>
       <c r="G75">
-        <v>669.2172534188634</v>
+        <v>11918.22340761399</v>
       </c>
       <c r="H75">
-        <v>429.0092702554174</v>
+        <v>9773.670048426227</v>
       </c>
       <c r="I75">
-        <v>2.504357192820414</v>
+        <v>2.418785791301203</v>
       </c>
       <c r="J75">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>734.297511473125</v>
+        <v>12647.65381540431</v>
       </c>
       <c r="C76">
-        <v>628.2689909857722</v>
+        <v>11523.40689097563</v>
       </c>
       <c r="D76">
-        <v>1.877284639953196</v>
+        <v>3.198393560291652</v>
       </c>
       <c r="E76">
-        <v>0.8978477960741678</v>
+        <v>0.9363461480292504</v>
       </c>
       <c r="F76">
-        <v>0.4005405411975147</v>
+        <v>0.351605780906275</v>
       </c>
       <c r="G76">
-        <v>683.3455599586451</v>
+        <v>12050.57821197743</v>
       </c>
       <c r="H76">
-        <v>418.5507123799938</v>
+        <v>9656.926995609128</v>
       </c>
       <c r="I76">
-        <v>2.738732192820414</v>
+        <v>2.818373055452147</v>
       </c>
       <c r="J76">
-        <v>1.875</v>
+        <v>3.196698113207547</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>731.2413144816563</v>
+        <v>12498.20408845836</v>
       </c>
       <c r="C77">
-        <v>641.84395629168</v>
+        <v>10356.44608207558</v>
       </c>
       <c r="D77">
-        <v>1.564662248877868</v>
+        <v>2.657238894636554</v>
       </c>
       <c r="E77">
-        <v>0.9772107407156884</v>
+        <v>1.012675000876459</v>
       </c>
       <c r="F77">
-        <v>0.2205265385442886</v>
+        <v>-0.01517853078841993</v>
       </c>
       <c r="G77">
-        <v>696.8212920601734</v>
+        <v>12190.03288868849</v>
       </c>
       <c r="H77">
-        <v>412.8077718858527</v>
+        <v>9610.214363888554</v>
       </c>
       <c r="I77">
-        <v>2.934044692820414</v>
+        <v>3.151362442244599</v>
       </c>
       <c r="J77">
-        <v>1.5625</v>
+        <v>2.663915094339623</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>710.6594871969147</v>
+        <v>12829.00393348746</v>
       </c>
       <c r="C78">
-        <v>573.9674760895304</v>
+        <v>10396.50698600821</v>
       </c>
       <c r="D78">
-        <v>1.248854349491168</v>
+        <v>2.132770219829707</v>
       </c>
       <c r="E78">
-        <v>0.9549382105563066</v>
+        <v>0.9620635174915018</v>
       </c>
       <c r="F78">
-        <v>0.05974312478682559</v>
+        <v>-0.2730003832746081</v>
       </c>
       <c r="G78">
-        <v>708.2885474413707</v>
+        <v>12307.68352366096</v>
       </c>
       <c r="H78">
-        <v>410.3929933069966</v>
+        <v>9611.363822299036</v>
       </c>
       <c r="I78">
-        <v>3.090294692820414</v>
+        <v>3.417753951678562</v>
       </c>
       <c r="J78">
-        <v>1.25</v>
+        <v>2.131132075471698</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>710.9733998661816</v>
+        <v>13884.09925000186</v>
       </c>
       <c r="C79">
-        <v>580.478270175274</v>
+        <v>11700.80119029698</v>
       </c>
       <c r="D79">
-        <v>0.93406876233617</v>
+        <v>1.599239195974321</v>
       </c>
       <c r="E79">
-        <v>0.9816406098252719</v>
+        <v>0.9038145298981705</v>
       </c>
       <c r="F79">
-        <v>-0.072963362991268</v>
+        <v>-0.4558475003974101</v>
       </c>
       <c r="G79">
-        <v>717.0660483525284</v>
+        <v>12392.58214424084</v>
       </c>
       <c r="H79">
-        <v>409.942330036325</v>
+        <v>9635.424326832781</v>
       </c>
       <c r="I79">
-        <v>3.207482192820414</v>
+        <v>3.617547583754033</v>
       </c>
       <c r="J79">
-        <v>0.9375</v>
+        <v>1.598349056603774</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>727.6095990569173</v>
+        <v>14960.67969054726</v>
       </c>
       <c r="C80">
-        <v>596.4309952363749</v>
+        <v>12808.28088180744</v>
       </c>
       <c r="D80">
-        <v>0.6337607183169539</v>
+        <v>1.069427900673101</v>
       </c>
       <c r="E80">
-        <v>0.9964782060633567</v>
+        <v>0.8002501801880955</v>
       </c>
       <c r="F80">
-        <v>-0.1037305938536069</v>
+        <v>-0.594323801870675</v>
       </c>
       <c r="G80">
-        <v>722.9127089161852</v>
+        <v>12444.87185199289</v>
       </c>
       <c r="H80">
-        <v>410.328122265386</v>
+        <v>9662.378635472056</v>
       </c>
       <c r="I80">
-        <v>3.285607192820414</v>
+        <v>3.750743338471014</v>
       </c>
       <c r="J80">
-        <v>0.625</v>
+        <v>1.065566037735849</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>723.3201419790036</v>
+        <v>15333.027181417</v>
       </c>
       <c r="C81">
-        <v>632.8825557128932</v>
+        <v>13623.27322735379</v>
       </c>
       <c r="D81">
-        <v>0.3228915826676803</v>
+        <v>0.526711953050282</v>
       </c>
       <c r="E81">
-        <v>0.9652772401321796</v>
+        <v>0.7819657064899587</v>
       </c>
       <c r="F81">
-        <v>-0.1818173054369996</v>
+        <v>-0.6135985121856081</v>
       </c>
       <c r="G81">
-        <v>725.8120677550509</v>
+        <v>12468.99533258555</v>
       </c>
       <c r="H81">
-        <v>410.7485829307855</v>
+        <v>9679.208512383346</v>
       </c>
       <c r="I81">
-        <v>3.324669692820414</v>
+        <v>3.817341215829505</v>
       </c>
       <c r="J81">
-        <v>0.3125</v>
+        <v>0.5327830188679246</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>711.913275871825</v>
+        <v>15636.38700591472</v>
       </c>
       <c r="C82">
-        <v>604.4070302851469</v>
+        <v>13270.3123040294</v>
       </c>
       <c r="D82">
-        <v>-0.0008302445603515657</v>
+        <v>0.005036662718601063</v>
       </c>
       <c r="E82">
-        <v>0.9547320566055504</v>
+        <v>0.7786893472374429</v>
       </c>
       <c r="F82">
-        <v>-0.1508259724312674</v>
+        <v>-0.6451115493519503</v>
       </c>
       <c r="G82">
-        <v>725.8120677550509</v>
+        <v>12468.99533258555</v>
       </c>
       <c r="H82">
-        <v>410.7485829307855</v>
+        <v>9679.208512383346</v>
       </c>
       <c r="I82">
-        <v>3.324669692820414</v>
+        <v>3.817341215829505</v>
       </c>
       <c r="J82">
         <v>0</v>
